--- a/src/datasets/pglib_opf_case30_fsr.xlsx
+++ b/src/datasets/pglib_opf_case30_fsr.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\Desktop\IEEE Datasets Julia\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\.julia\packages\PowerGrids\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD17780-A3E5-4395-9CA0-76ED76A5A3A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169CD5A7-61D9-49C6-9B82-BE18F6EA682A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="465" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="5" r:id="rId1"/>
     <sheet name="gen" sheetId="2" r:id="rId2"/>
     <sheet name="gencost" sheetId="3" r:id="rId3"/>
     <sheet name="branch" sheetId="4" r:id="rId4"/>
+    <sheet name="global" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>bus_i</t>
   </si>
@@ -154,6 +155,33 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>baseMVA</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{Alsac1974,
+  doi = {10.1109/tpas.1974.293972},
+  url = {https://doi.org/10.1109/tpas.1974.293972},
+  year = {1974},
+  month = may,
+  publisher = {Institute of Electrical and Electronics Engineers ({IEEE})},
+  volume = {{PAS}-93},
+  number = {3},
+  pages = {745--751},
+  author = {O. Alsac and B. Stott},
+  title = {Optimal Load Flow with Steady-State Security},
+  journal = {{IEEE} Transactions on Power Apparatus and Systems}
+}</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -189,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +226,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2580,7 +2614,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4314,4 +4348,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2752741D-CEF5-43E9-B84E-C4E8B332B17F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="51" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>